--- a/data/trans_camb/P54_A_4_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_4_R-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,96</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,87</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,63</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,34; -4,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,06; -6,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,18; -9,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,59; -1,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,11; -8,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,98; -5,32</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,27%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-94,69; -36,43</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -55,49</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,94; -8,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,76; -67,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,03; -46,93</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,83</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,64</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,32; -0,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,68; -7,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,67; -12,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,45; -11,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,99; -7,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,74; -10,49</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,87%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,13; 25,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,33; -50,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,37; -60,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,47; -58,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,38; -25,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,98; -60,85</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,29</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,29</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,31</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,76; -5,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,8; -5,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,28; -13,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,03; -12,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,15; -10,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,95; -10,7</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,14%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,39; -27,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,66; -35,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,07; -74,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,25; -72,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,62; -63,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,63; -65,22</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,93</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,69</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,65</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,43</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,32</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,92; -8,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,63; -10,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,08; -18,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,38; -18,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,24; -15,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,86; -15,9</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,32%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,35%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,99%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,61%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,73%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,95; -63,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,85; -79,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,52; -79,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,68; -77,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,27; -76,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,03; -83,28</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,63</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,19</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,93</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,04</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,78</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,13</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,59; -13,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,7; -13,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,68; -16,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,11; -18,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,85; -16,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,09; -17,14</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,11%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,41%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,68%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,94%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,96%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,32%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,06; -64,13</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,78; -59,86</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,42; -73,07</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,99; -82,83</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,33; -73,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,58; -76,76</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,45</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,93</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,58</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,72</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,34</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,57; -10,29</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,8; -6,62</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,15; -8,67</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,78; -7,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,85; -10,69</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,96; -9,03</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,85%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,59%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,5%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,95%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,86%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>-100,0; -75,74</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -33,66</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,75; -63,88</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -87,82</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,55; -65,55</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,71</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,19</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,94</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,57</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,31</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,85</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,45; -10,76</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,0; -11,73</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,44; -16,8</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,92; -15,25</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,19; -14,36</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,64; -14,13</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,65%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,4%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,01%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,51%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,93%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,52%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,39 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,38; -63,1</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,14; -73,11</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,21; -85,63</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,68; -77,98</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,92; -77,85</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,14; -77,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
